--- a/작업계획.xlsx
+++ b/작업계획.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\Desktop\project\T3_Why_Me_unuty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\OneDrive\바탕 화면\Project\T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2195E987-92D8-495E-8F71-3C6F78BD9AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C02E86-7352-4B93-9732-6030922E2B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>FSM 기반 유닛 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,118 @@
   </si>
   <si>
     <t>9. 대장전 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2항목 어떻게할까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">moving상태에서 레이캐스트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이캐스트감지 거리는 공격 사거리(data 테이블에 저장해뒀음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지시 RobBase에 상태 변화 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving 상태가 아니면 네비게이션 매쉬 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 어떻게 움직일까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FindNearestEnemyInRange를 사용해 가장 가까운 자신과 factionType다른놈을 찾음 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그놈을 향해 네비게이션 매쉬 작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇다면 moving상태일때 계속 추적해야되나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 코루틴 무한 루프를 돌려서 추적할까? 1초에 한번씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving중에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이케스트 계속 감지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지가 안될시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 찾음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그놈을 목표로이동로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 매쉬 스탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네비게이션 매쉬 목표  null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이케스트는 코루틴으로 1초마다 감지하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 감지된 상태는 플래그 변수로 2초간 저장 즉 다음 스캔때 감지 못하면 false </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving 상태면 네비게이션 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 별개로 움직임 Moving면 항상 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적하는 대상은? 자신과 다른 factionType를 가진애</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감지시 Attack상태로 바뀌는걸 요청하며 감지가 안될시 다시 Moving으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 코루틴으로 넣자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그와 별개로 상시로 레이케스트(레이케스트 거리는 공격 사거리, 대상은 자신과 faction이 다른놈) 해당 레이케스트는 코루틴으로 1초마다 감지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,67 +506,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:C18"/>
+  <dimension ref="C5:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.45">
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="O24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="O25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="V26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.45">
+      <c r="R31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="18:33" x14ac:dyDescent="0.45">
+      <c r="R33" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="18:33" x14ac:dyDescent="0.45">
+      <c r="R35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="18:33" x14ac:dyDescent="0.45">
+      <c r="R36" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/작업계획.xlsx
+++ b/작업계획.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\OneDrive\바탕 화면\Project\T3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\Desktop\project\T3_Why_Me_unuty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C02E86-7352-4B93-9732-6030922E2B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F8A33-3EB3-480C-BC8A-4CC4125FC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>FSM 기반 유닛 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +180,18 @@
   </si>
   <si>
     <t>그와 별개로 상시로 레이케스트(레이케스트 거리는 공격 사거리, 대상은 자신과 faction이 다른놈) 해당 레이케스트는 코루틴으로 1초마다 감지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move 너무 방대해졌다 리팩토링 작업 드가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 인물 대사 추가 예: "아 집가고싶다", "팀킬좀 그만해라!", "재가요?", "저걸요?", "잡으라고요?" 말풍선 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀킬 관련해서는 조금 더 고민해볼듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,20 +517,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:AG36"/>
+  <dimension ref="C5:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -527,7 +538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -535,7 +546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -543,7 +554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -551,12 +562,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -564,12 +575,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -577,12 +588,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
       <c r="R15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -590,7 +601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -598,22 +609,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
       <c r="R19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O24" t="s">
         <v>27</v>
       </c>
@@ -624,7 +643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O25" t="s">
         <v>28</v>
       </c>
@@ -632,7 +651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
       <c r="O26" t="s">
         <v>29</v>
       </c>
@@ -640,22 +659,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="18:33" x14ac:dyDescent="0.45">
+    <row r="33" spans="18:33" x14ac:dyDescent="0.3">
       <c r="R33" t="s">
         <v>32</v>
       </c>
@@ -669,14 +688,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="18:33" x14ac:dyDescent="0.45">
+    <row r="35" spans="18:33" x14ac:dyDescent="0.3">
       <c r="R35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="18:33" x14ac:dyDescent="0.45">
+    <row r="36" spans="18:33" x14ac:dyDescent="0.3">
       <c r="R36" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="18:33" x14ac:dyDescent="0.3">
+      <c r="R40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/작업계획.xlsx
+++ b/작업계획.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\Desktop\project\T3_Why_Me_unuty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F8A33-3EB3-480C-BC8A-4CC4125FC2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF5C69-6305-48CC-8BE9-05B998F92309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>FSM 기반 유닛 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,66 @@
   </si>
   <si>
     <t>팀킬 관련해서는 조금 더 고민해볼듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피아식별 및 이동 이슈 대응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재문제 fsm이 빡셈 문제는 상대를 한번 정해서 어택을 때리면 상대가 죽거나 더 가까운애가 와도 타겟을 변경하지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 항상 타겟을 변경하게 하면 타겟쪽으로 계속 이동하는 문제가 발생 사정거리 이내로 들와도 계속 움직임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 문제 해결 방한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이케스트를 넘기는게 커런트 포지션임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 커런트 포지션은 계속 갱신해 줘야된다는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커런트 포지션을 계속 갱신하고 이동 타이밍을 바꾸면 될듯?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 이동 안하는 조건이 fsm임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속 추적은 하는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 내로 들어온놈이 감지가 되면 스탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉 감지와 추적을 분리시키는 느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 이러니까 알아먹기 힘들긴하네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것도 나눌까 고민중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:AG40"/>
+  <dimension ref="C5:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -674,7 +734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="18:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
       <c r="R33" t="s">
         <v>32</v>
       </c>
@@ -688,19 +748,86 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="18:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.3">
       <c r="R35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="18:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
       <c r="R36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="18:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
       <c r="R40" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/작업계획.xlsx
+++ b/작업계획.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdd2\Desktop\project\T3_Why_Me_unuty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\T3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFF5C69-6305-48CC-8BE9-05B998F92309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2013329-8FCC-4171-ABA9-F7A5D1DE6081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>FSM 기반 유닛 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,6 +252,54 @@
   </si>
   <si>
     <t>이것도 나눌까 고민중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드래그 앤 드랍 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 게임 시작 전에는 게임 매니저 싱글톤 만들어서 상태 부여해야할듯 스타트 누르면 그때부터 게임 시작인걸로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 드래그용 프리팹 만들기(반투명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 버튼 누르면 마우스나 터치 따라다님</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 다시 버튼을 누르면 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 배치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼을 눌러서 유닛이 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 버튼 누름과 동시에 레디 유닛 프리팹 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 어떤 유닛을 나오게할것인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이것은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛은 터치 투 드랍 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 터치시 싱글톤에서 버튼 눌렀는지 안눌렀는지 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,20 +625,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C5:AG56"/>
+  <dimension ref="C5:AG71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -598,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -606,7 +654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -614,7 +662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -622,12 +670,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -635,12 +683,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -648,12 +696,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.45">
       <c r="R15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>9</v>
       </c>
@@ -661,7 +709,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -669,7 +717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>40</v>
       </c>
@@ -677,22 +725,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.45">
       <c r="R21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.45">
       <c r="R23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.45">
       <c r="O24" t="s">
         <v>27</v>
       </c>
@@ -703,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.45">
       <c r="O25" t="s">
         <v>28</v>
       </c>
@@ -711,7 +759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:22" x14ac:dyDescent="0.45">
       <c r="O26" t="s">
         <v>29</v>
       </c>
@@ -719,22 +767,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.45">
       <c r="R28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:22" x14ac:dyDescent="0.45">
       <c r="R29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:22" x14ac:dyDescent="0.45">
       <c r="R31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.45">
       <c r="R33" t="s">
         <v>32</v>
       </c>
@@ -748,12 +796,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.45">
       <c r="R35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -761,12 +809,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
         <v>44</v>
       </c>
@@ -774,27 +822,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:33" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>49</v>
       </c>
@@ -802,12 +850,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:13" x14ac:dyDescent="0.45">
       <c r="M51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
         <v>50</v>
       </c>
@@ -815,19 +863,78 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C56" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="N67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="N68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
